--- a/data/case1/14/P2_5.xlsx
+++ b/data/case1/14/P2_5.xlsx
@@ -61,167 +61,167 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>0.3098136534814131</v>
+        <v>0.26275633660550568</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>-0.0099999990948731465</v>
+        <v>-0.0099999997061956947</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>-0.0089999990848319555</v>
+        <v>-0.0089999997043062052</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.061991582059285122</v>
+        <v>0.061996661545101972</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>-0.0059999990998393926</v>
+        <v>-0.0059999997109549952</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>-0.0059999990713386353</v>
+        <v>-0.0059999997030324437</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>-0.019999998911881534</v>
+        <v>-0.019999999648014466</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>-0.019999998908732941</v>
+        <v>-0.019999999648648625</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>-0.0059999990653158974</v>
+        <v>-0.0059999997060842247</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>-0.0059999990654588942</v>
+        <v>-0.0059999997089974499</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.040805140955210817</v>
+        <v>-0.0044999997152856963</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>-0.0059999990636572242</v>
+        <v>0.065372065473721097</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>-0.0059999990555166249</v>
+        <v>-0.0059999997096626956</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>-0.011999998985849913</v>
+        <v>-0.011999999685946783</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>-0.0059999990526353741</v>
+        <v>0.029047236886433403</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>-0.0059999990524386426</v>
+        <v>-0.0059999997088362456</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>-0.034829196156865194</v>
+        <v>-0.0059999997076705114</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.039311243231316517</v>
+        <v>-0.0089999996956278139</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>-0.0089999991039615423</v>
+        <v>-0.0089999997095042694</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>-0.0089999990729179302</v>
+        <v>-0.046721325296335436</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>-0.0089999990658706785</v>
+        <v>-0.0089999997025191902</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>-0.073471920853060979</v>
+        <v>-0.0089999997022234268</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>-0.0089999990763827142</v>
+        <v>-0.0089999997016425581</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>-0.041999998690404716</v>
+        <v>-0.041999999567297941</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>-0.041999998683304618</v>
+        <v>-0.041999999564986013</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>-0.005999999068773576</v>
+        <v>-0.0059999997015083295</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>-0.0059999990632961797</v>
+        <v>-0.029392592521128247</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>-0.0059999990416255145</v>
+        <v>-0.0059999996925714782</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>-0.011999998959247193</v>
+        <v>-0.01199999966422638</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>-0.019999998861991664</v>
+        <v>-0.019999999630496479</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>-0.01499999890835646</v>
+        <v>-0.01499999964702603</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>-0.020999998839097422</v>
+        <v>-0.020999999622959287</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>-0.0059999990078676291</v>
+        <v>-0.0059999996817685641</v>
       </c>
     </row>
   </sheetData>
